--- a/DatabaseFiles/Stuff.xlsx
+++ b/DatabaseFiles/Stuff.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQLFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Desktop\Project_Tracker\psychic-computing-machine\DatabaseFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,17 @@
     <sheet name="UserData" sheetId="2" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="872" uniqueCount="438">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="933" uniqueCount="437">
   <si>
     <t>username</t>
   </si>
@@ -1231,9 +1228,6 @@
   </si>
   <si>
     <t>GraduationDate</t>
-  </si>
-  <si>
-    <t>Department</t>
   </si>
   <si>
     <t>Major</t>
@@ -1353,7 +1347,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1412,10 +1409,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -1451,7 +1450,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1729,16 +1728,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1791,7 +1790,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -1841,7 +1840,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>364</v>
       </c>
@@ -1888,7 +1887,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>349</v>
       </c>
@@ -1935,7 +1934,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1964,7 +1963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1996,7 +1995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2028,7 +2027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -2060,7 +2059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -2089,7 +2088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -2118,7 +2117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -2182,7 +2181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -2214,7 +2213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -2272,7 +2271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -2333,7 +2332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -2365,7 +2364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -2394,7 +2393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -2426,7 +2425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -2487,7 +2486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -2519,7 +2518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>124</v>
       </c>
@@ -2551,7 +2550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -2583,7 +2582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -2615,7 +2614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>144</v>
       </c>
@@ -2647,7 +2646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -2679,7 +2678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>156</v>
       </c>
@@ -2708,7 +2707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>160</v>
       </c>
@@ -2740,7 +2739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>167</v>
       </c>
@@ -2772,7 +2771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -2801,7 +2800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>178</v>
       </c>
@@ -2830,7 +2829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>189</v>
       </c>
@@ -2894,7 +2893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>195</v>
       </c>
@@ -2926,7 +2925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>202</v>
       </c>
@@ -2955,7 +2954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>206</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>213</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>220</v>
       </c>
@@ -3051,7 +3050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>224</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>231</v>
       </c>
@@ -3115,7 +3114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>237</v>
       </c>
@@ -3147,7 +3146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>244</v>
       </c>
@@ -3176,7 +3175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>248</v>
       </c>
@@ -3205,7 +3204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>252</v>
       </c>
@@ -3234,7 +3233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>260</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>265</v>
       </c>
@@ -3327,7 +3326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>271</v>
       </c>
@@ -3356,7 +3355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>275</v>
       </c>
@@ -3388,7 +3387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>282</v>
       </c>
@@ -3420,7 +3419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>289</v>
       </c>
@@ -3452,7 +3451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>294</v>
       </c>
@@ -3484,7 +3483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>301</v>
       </c>
@@ -3516,7 +3515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>306</v>
       </c>
@@ -3548,7 +3547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>310</v>
       </c>
@@ -3580,7 +3579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>316</v>
       </c>
@@ -3612,7 +3611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>323</v>
       </c>
@@ -3644,7 +3643,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>332</v>
       </c>
@@ -3676,7 +3675,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>333</v>
       </c>
@@ -3708,7 +3707,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>341</v>
       </c>
@@ -3747,32 +3746,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>393</v>
       </c>
       <c r="B1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1" t="s">
         <v>426</v>
       </c>
-      <c r="C1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>User!A2</f>
         <v>ab1234</v>
@@ -3782,10 +3781,10 @@
         <v>ab1234@rit.edu</v>
       </c>
       <c r="C2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>User!A3</f>
         <v>dn1234</v>
@@ -3795,10 +3794,10 @@
         <v>dn1234@rit.edu</v>
       </c>
       <c r="C3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>User!A4</f>
         <v>gs1234</v>
@@ -3808,10 +3807,10 @@
         <v>gs1234@rit.edu</v>
       </c>
       <c r="C4" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>User!A5</f>
         <v>txaics</v>
@@ -3821,10 +3820,10 @@
         <v>txaics@rit.edu</v>
       </c>
       <c r="C5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>User!A6</f>
         <v>gpavks</v>
@@ -3834,10 +3833,10 @@
         <v>gpavks@rit.edu</v>
       </c>
       <c r="C6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>User!A7</f>
         <v>dlaics</v>
@@ -3847,10 +3846,10 @@
         <v>daniel.ashbrook@rit.edu</v>
       </c>
       <c r="C7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>User!A8</f>
         <v>ciiics</v>
@@ -3860,10 +3859,10 @@
         <v>catherine.beaton@rit.edu</v>
       </c>
       <c r="C8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>User!A9</f>
         <v>aobics</v>
@@ -3873,10 +3872,10 @@
         <v>aobics@rit.edu</v>
       </c>
       <c r="C9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>User!A10</f>
         <v>tsbics</v>
@@ -3886,10 +3885,10 @@
         <v>tsbics@rit.edu</v>
       </c>
       <c r="C10" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>User!A11</f>
         <v>dsbics</v>
@@ -3899,10 +3898,10 @@
         <v>dsbics@rit.edu</v>
       </c>
       <c r="C11" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>User!A12</f>
         <v>cbbics</v>
@@ -3912,10 +3911,10 @@
         <v>cbbics@rit.edu</v>
       </c>
       <c r="C12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>User!A13</f>
         <v>spbics</v>
@@ -3925,10 +3924,10 @@
         <v>Sean.Boyle@rit.edu</v>
       </c>
       <c r="C13" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>User!A14</f>
         <v>mjcics</v>
@@ -3938,10 +3937,10 @@
         <v>mjcics@rit.edu</v>
       </c>
       <c r="C14" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>User!A15</f>
         <v>mjcvks</v>
@@ -3951,10 +3950,10 @@
         <v>mjcvks@rit.edu</v>
       </c>
       <c r="C15" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>User!A16</f>
         <v>mjfics</v>
@@ -3964,10 +3963,10 @@
         <v>Michael.Floeser@rit.edu</v>
       </c>
       <c r="C16" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>User!A17</f>
         <v>nffbbu</v>
@@ -3977,10 +3976,10 @@
         <v>nick@saunders.rit.edu</v>
       </c>
       <c r="C17" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>User!A18</f>
         <v>bdfvks</v>
@@ -3990,10 +3989,10 @@
         <v>bdfvks@rit.edu</v>
       </c>
       <c r="C18" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>User!A19</f>
         <v>dmgics</v>
@@ -4003,10 +4002,10 @@
         <v>Dean.Ganskop@rit.edu</v>
       </c>
       <c r="C19" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>User!A20</f>
         <v>efgics</v>
@@ -4016,10 +4015,10 @@
         <v>efgics@rit.edu</v>
       </c>
       <c r="C20" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>User!A21</f>
         <v>jrhicsa</v>
@@ -4029,10 +4028,10 @@
         <v>jrhicsa@rit.edu</v>
       </c>
       <c r="C21" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>User!A22</f>
         <v>vlhics</v>
@@ -4042,10 +4041,10 @@
         <v>vlh@rit.edu</v>
       </c>
       <c r="C22" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>User!A23</f>
         <v>bhhics</v>
@@ -4055,10 +4054,10 @@
         <v>Bruce.Hartpence@rit.edu</v>
       </c>
       <c r="C23" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>User!A24</f>
         <v>amhgss</v>
@@ -4068,10 +4067,10 @@
         <v>amhgss@rit.edu</v>
       </c>
       <c r="C24" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>User!A25</f>
         <v>lwhfac</v>
@@ -4081,10 +4080,10 @@
         <v>Lawrence.Hill@rit.edu</v>
       </c>
       <c r="C25" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>User!A26</f>
         <v>ephics</v>
@@ -4094,10 +4093,10 @@
         <v>edward.holden@rit.edu</v>
       </c>
       <c r="C26" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>User!A27</f>
         <v>mphics</v>
@@ -4107,10 +4106,10 @@
         <v>matt.huenerfauth@rit.edu</v>
       </c>
       <c r="C27" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>User!A28</f>
         <v>jcjics</v>
@@ -4120,10 +4119,10 @@
         <v>jcjics@rit.edu</v>
       </c>
       <c r="C28" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>User!A29</f>
         <v>mrjics</v>
@@ -4133,10 +4132,10 @@
         <v>mrjics@rit.edu</v>
       </c>
       <c r="C29" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>User!A30</f>
         <v>jwkics</v>
@@ -4146,10 +4145,10 @@
         <v>jai.kang@rit.edu</v>
       </c>
       <c r="C30" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>User!A31</f>
         <v>drkisd</v>
@@ -4159,10 +4158,10 @@
         <v>drkisd@rit.edu</v>
       </c>
       <c r="C31" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>User!A32</f>
         <v>hnkics</v>
@@ -4172,10 +4171,10 @@
         <v>hnkics@rit.edu</v>
       </c>
       <c r="C32" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>User!A33</f>
         <v>mxkics1</v>
@@ -4185,10 +4184,10 @@
         <v>mxkics1@rit.edu</v>
       </c>
       <c r="C33" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>User!A34</f>
         <v>dmlics</v>
@@ -4198,10 +4197,10 @@
         <v>dmlics@rit.edu</v>
       </c>
       <c r="C34" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>User!A35</f>
         <v>jalics</v>
@@ -4211,10 +4210,10 @@
         <v>Jeffrey.Lasky@rit.edu</v>
       </c>
       <c r="C35" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>User!A36</f>
         <v>jalvks</v>
@@ -4224,10 +4223,10 @@
         <v>jalvks@rit.edu</v>
       </c>
       <c r="C36" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>User!A37</f>
         <v>jxlics</v>
@@ -4237,10 +4236,10 @@
         <v>jxlics@rit.edu</v>
       </c>
       <c r="C37" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>User!A38</f>
         <v>phlics</v>
@@ -4250,10 +4249,10 @@
         <v>Peter.Lutz@rit.edu</v>
       </c>
       <c r="C38" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>User!A39</f>
         <v>spmics</v>
@@ -4263,10 +4262,10 @@
         <v>Sharon.Mason@rit.edu</v>
       </c>
       <c r="C39" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>User!A40</f>
         <v>mjmics</v>
@@ -4276,10 +4275,10 @@
         <v>mickmcquaid@gmail.com</v>
       </c>
       <c r="C40" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>User!A41</f>
         <v>thoics</v>
@@ -4289,10 +4288,10 @@
         <v>Tom.Oh@rit.edu</v>
       </c>
       <c r="C41" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f>User!A42</f>
         <v>sphics</v>
@@ -4302,10 +4301,10 @@
         <v>sylvia.perez-hardy@rit.edu</v>
       </c>
       <c r="C42" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f>User!A43</f>
         <v>djpihst</v>
@@ -4315,10 +4314,10 @@
         <v>djpihst@rit.edu</v>
       </c>
       <c r="C43" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f>User!A44</f>
         <v>sarics</v>
@@ -4328,10 +4327,10 @@
         <v>sarics@rit.edu</v>
       </c>
       <c r="C44" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f>User!A45</f>
         <v>ldrics</v>
@@ -4341,10 +4340,10 @@
         <v>ldrics@rit.edu</v>
       </c>
       <c r="C45" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f>User!A46</f>
         <v>kmsics</v>
@@ -4354,10 +4353,10 @@
         <v>kmsics@rit.edu</v>
       </c>
       <c r="C46" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f>User!A47</f>
         <v>cxsics</v>
@@ -4367,10 +4366,10 @@
         <v>cxsics@rit.edu</v>
       </c>
       <c r="C47" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f>User!A48</f>
         <v>nxsvks</v>
@@ -4380,10 +4379,10 @@
         <v>nxsvks@rit.edu</v>
       </c>
       <c r="C48" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f>User!A49</f>
         <v>aesfaa</v>
@@ -4393,10 +4392,10 @@
         <v>adam.smith@rit.edu</v>
       </c>
       <c r="C49" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f>User!A50</f>
         <v>jxtadm</v>
@@ -4406,10 +4405,10 @@
         <v>jxtadm@rit.edu</v>
       </c>
       <c r="C50" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f>User!A51</f>
         <v>bmtski</v>
@@ -4419,10 +4418,10 @@
         <v>bmtski@rit.edu</v>
       </c>
       <c r="C51" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f>User!A52</f>
         <v>rpvvks</v>
@@ -4432,10 +4431,10 @@
         <v>rpv@mail.rit.edu</v>
       </c>
       <c r="C52" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f>User!A53</f>
         <v>axgvks</v>
@@ -4445,10 +4444,10 @@
         <v>axgvks@rit.edu</v>
       </c>
       <c r="C53" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f>User!A54</f>
         <v>emwics</v>
@@ -4458,10 +4457,10 @@
         <v>emwics@rit.edu</v>
       </c>
       <c r="C54" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f>User!A55</f>
         <v>jswics</v>
@@ -4471,10 +4470,10 @@
         <v>jswics@rit.edu</v>
       </c>
       <c r="C55" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f>User!A56</f>
         <v>mayici</v>
@@ -4484,10 +4483,10 @@
         <v>mayici@rit.edu</v>
       </c>
       <c r="C56" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f>User!A57</f>
         <v>qyuvks</v>
@@ -4497,10 +4496,10 @@
         <v>qyuvks@rit.edu</v>
       </c>
       <c r="C57" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f>User!A58</f>
         <v>sjzics</v>
@@ -4510,10 +4509,10 @@
         <v>sjzics@rit.edu</v>
       </c>
       <c r="C58" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f>User!A59</f>
         <v>rdbcst</v>
@@ -4523,10 +4522,10 @@
         <v>rdbcst@rit.edu</v>
       </c>
       <c r="C59" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f>User!A60</f>
         <v>GradCoord</v>
@@ -4536,7 +4535,7 @@
         <v>qyuvks@rit.edu</v>
       </c>
       <c r="C60" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -4545,86 +4544,86 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="137.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="137.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1" t="s">
         <v>411</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>412</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>413</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>414</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>415</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>416</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>417</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>418</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>419</v>
       </c>
-      <c r="J1" t="s">
-        <v>420</v>
-      </c>
       <c r="K1" t="s">
+        <v>418</v>
+      </c>
+      <c r="L1" t="s">
         <v>419</v>
       </c>
-      <c r="L1" t="s">
-        <v>420</v>
-      </c>
       <c r="M1" t="s">
+        <v>430</v>
+      </c>
+      <c r="N1" t="s">
         <v>431</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>432</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>433</v>
       </c>
-      <c r="P1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C2" t="str">
         <f>Users!M2</f>
@@ -4635,7 +4634,7 @@
         <v xml:space="preserve">Network implosion </v>
       </c>
       <c r="E2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F2" s="2" t="d">
         <v>2016-08-20</v>
@@ -4662,18 +4661,18 @@
         <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C3" t="str">
         <f>Users!M3</f>
@@ -4684,7 +4683,7 @@
         <v>Program better with a beard</v>
       </c>
       <c r="E3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F3" s="2" t="d">
         <v>2016-08-16</v>
@@ -4711,18 +4710,18 @@
         <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C4" t="str">
         <f>Users!M4</f>
@@ -4733,7 +4732,7 @@
         <v>Capstone tracking database</v>
       </c>
       <c r="E4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F4" s="2" t="d">
         <v>2015-08-14</v>
@@ -4760,7 +4759,7 @@
         <v>45</v>
       </c>
       <c r="O4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -4772,56 +4771,56 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>393</v>
       </c>
       <c r="B1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1" t="s">
         <v>408</v>
       </c>
-      <c r="C1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>Users!A2</f>
         <v>ab1234</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>Users!A3</f>
         <v>dn1234</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>Users!A4</f>
         <v>gs1234</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>Users!A5</f>
         <v>txaics</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>Users!A6</f>
         <v>gpavks</v>
@@ -4831,10 +4830,10 @@
         <v>GOL 2315</v>
       </c>
       <c r="C6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>Users!A7</f>
         <v>dlaics</v>
@@ -4844,10 +4843,10 @@
         <v>GOL 2329</v>
       </c>
       <c r="C7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>Users!A8</f>
         <v>ciiics</v>
@@ -4857,22 +4856,22 @@
         <v>GOL 2621</v>
       </c>
       <c r="C8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>Users!A9</f>
         <v>aobics</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>Users!A10</f>
         <v>tsbics</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>Users!A11</f>
         <v>dsbics</v>
@@ -4882,10 +4881,10 @@
         <v>GOL 2571</v>
       </c>
       <c r="C11" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>Users!A12</f>
         <v>cbbics</v>
@@ -4895,28 +4894,28 @@
         <v>GOL 2615</v>
       </c>
       <c r="C12" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>Users!A13</f>
         <v>spbics</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>Users!A14</f>
         <v>mjcics</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>Users!A15</f>
         <v>mjcvks</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>Users!A16</f>
         <v>mjfics</v>
@@ -4926,16 +4925,16 @@
         <v>GOL 2669</v>
       </c>
       <c r="C16" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>Users!A17</f>
         <v>nffbbu</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>Users!A18</f>
         <v>bdfvks</v>
@@ -4945,16 +4944,16 @@
         <v>GOL 2619</v>
       </c>
       <c r="C18" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>Users!A19</f>
         <v>dmgics</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>Users!A20</f>
         <v>efgics</v>
@@ -4964,16 +4963,16 @@
         <v>GOL 2617</v>
       </c>
       <c r="C20" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>Users!A21</f>
         <v>jrhicsa</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>Users!A22</f>
         <v>vlhics</v>
@@ -4983,10 +4982,10 @@
         <v>GOL 2645</v>
       </c>
       <c r="C22" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>Users!A23</f>
         <v>bhhics</v>
@@ -4996,10 +4995,10 @@
         <v>GOL 2323</v>
       </c>
       <c r="C23" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>Users!A24</f>
         <v>amhgss</v>
@@ -5009,10 +5008,10 @@
         <v>GOL 2323</v>
       </c>
       <c r="C24" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>Users!A25</f>
         <v>lwhfac</v>
@@ -5022,10 +5021,10 @@
         <v>GOL 2331</v>
       </c>
       <c r="C25" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>Users!A26</f>
         <v>ephics</v>
@@ -5035,10 +5034,10 @@
         <v>GOL 2655</v>
       </c>
       <c r="C26" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>Users!A27</f>
         <v>mphics</v>
@@ -5048,22 +5047,22 @@
         <v>GOL 2659</v>
       </c>
       <c r="C27" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>Users!A28</f>
         <v>jcjics</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>Users!A29</f>
         <v>mrjics</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>Users!A30</f>
         <v>jwkics</v>
@@ -5073,10 +5072,10 @@
         <v>GOL 2651</v>
       </c>
       <c r="C30" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>Users!A31</f>
         <v>drkisd</v>
@@ -5086,22 +5085,22 @@
         <v>GOL 2285</v>
       </c>
       <c r="C31" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>Users!A32</f>
         <v>hnkics</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>Users!A33</f>
         <v>mxkics1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>Users!A34</f>
         <v>dmlics</v>
@@ -5111,10 +5110,10 @@
         <v>GOL 2627</v>
       </c>
       <c r="C34" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>Users!A35</f>
         <v>jalics</v>
@@ -5124,10 +5123,10 @@
         <v>GOL 26xx</v>
       </c>
       <c r="C35" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>Users!A36</f>
         <v>jalvks</v>
@@ -5137,16 +5136,16 @@
         <v>GOL 2657</v>
       </c>
       <c r="C36" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>Users!A37</f>
         <v>jxlics</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>Users!A38</f>
         <v>phlics</v>
@@ -5156,10 +5155,10 @@
         <v>GOL 2345</v>
       </c>
       <c r="C38" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>Users!A39</f>
         <v>spmics</v>
@@ -5169,16 +5168,16 @@
         <v>GOL 2319</v>
       </c>
       <c r="C39" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>Users!A40</f>
         <v>mjmics</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>Users!A41</f>
         <v>thoics</v>
@@ -5188,16 +5187,16 @@
         <v>GOL 2281</v>
       </c>
       <c r="C41" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f>Users!A42</f>
         <v>sphics</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f>Users!A43</f>
         <v>djpihst</v>
@@ -5207,52 +5206,52 @@
         <v>CBT-2161</v>
       </c>
       <c r="C43" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f>Users!A44</f>
         <v>sarics</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f>Users!A45</f>
         <v>ldrics</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f>Users!A46</f>
         <v>kmsics</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f>Users!A47</f>
         <v>cxsics</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f>Users!A48</f>
         <v>nxsvks</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f>Users!A49</f>
         <v>aesfaa</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f>Users!A50</f>
         <v>jxtadm</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f>Users!A51</f>
         <v>bmtski</v>
@@ -5262,10 +5261,10 @@
         <v>GOL 2673</v>
       </c>
       <c r="C51" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f>Users!A52</f>
         <v>rpvvks</v>
@@ -5275,16 +5274,16 @@
         <v>GOL 2519</v>
       </c>
       <c r="C52" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f>Users!A53</f>
         <v>axgvks</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f>Users!A54</f>
         <v>emwics</v>
@@ -5294,22 +5293,22 @@
         <v>GOL 2635</v>
       </c>
       <c r="C54" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f>Users!A55</f>
         <v>jswics</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f>Users!A56</f>
         <v>mayici</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f>Users!A57</f>
         <v>qyuvks</v>
@@ -5319,10 +5318,10 @@
         <v>GOL 2669</v>
       </c>
       <c r="C57" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f>Users!A58</f>
         <v>sjzics</v>
@@ -5332,10 +5331,10 @@
         <v>GOL 2109</v>
       </c>
       <c r="C58" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f>Users!A59</f>
         <v>rdbcst</v>
@@ -5345,10 +5344,10 @@
         <v>GOL 2103</v>
       </c>
       <c r="C59" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f>Users!A60</f>
         <v>GradCoord</v>
@@ -5358,7 +5357,7 @@
         <v>GOL 2669</v>
       </c>
       <c r="C60" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -5367,55 +5366,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>393</v>
       </c>
       <c r="B1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" t="s">
         <v>405</v>
       </c>
-      <c r="C1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>Users!A2</f>
         <v>ab1234</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>Users!A3</f>
         <v>dn1234</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>Users!A4</f>
         <v>gs1234</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>Users!A5</f>
         <v>txaics</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>Users!A6</f>
         <v>gpavks</v>
@@ -5425,10 +5424,10 @@
         <v>585-475-7854</v>
       </c>
       <c r="C6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>Users!A7</f>
         <v>dlaics</v>
@@ -5438,10 +5437,10 @@
         <v>585-475-4784</v>
       </c>
       <c r="C7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>Users!A8</f>
         <v>ciiics</v>
@@ -5451,22 +5450,22 @@
         <v>585-281-6162</v>
       </c>
       <c r="C8" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>Users!A9</f>
         <v>aobics</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>Users!A10</f>
         <v>tsbics</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>Users!A11</f>
         <v>dsbics</v>
@@ -5476,10 +5475,10 @@
         <v>585-4755231</v>
       </c>
       <c r="C11" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>Users!A12</f>
         <v>cbbics</v>
@@ -5489,28 +5488,28 @@
         <v>585-475-7946</v>
       </c>
       <c r="C12" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>Users!A13</f>
         <v>spbics</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>Users!A14</f>
         <v>mjcics</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>Users!A15</f>
         <v>mjcvks</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>Users!A16</f>
         <v>mjfics</v>
@@ -5520,16 +5519,16 @@
         <v>585-475-7031</v>
       </c>
       <c r="C16" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>Users!A17</f>
         <v>nffbbu</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>Users!A18</f>
         <v>bdfvks</v>
@@ -5539,28 +5538,28 @@
         <v>585-475-6511</v>
       </c>
       <c r="C18" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>Users!A19</f>
         <v>dmgics</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>Users!A20</f>
         <v>efgics</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>Users!A21</f>
         <v>jrhicsa</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>Users!A22</f>
         <v>vlhics</v>
@@ -5570,10 +5569,10 @@
         <v>585-475-5384</v>
       </c>
       <c r="C22" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>Users!A23</f>
         <v>bhhics</v>
@@ -5583,10 +5582,10 @@
         <v>585-475-7938</v>
       </c>
       <c r="C23" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>Users!A24</f>
         <v>amhgss</v>
@@ -5596,10 +5595,10 @@
         <v>585-475-4554</v>
       </c>
       <c r="C24" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>Users!A25</f>
         <v>lwhfac</v>
@@ -5609,10 +5608,10 @@
         <v>585-475-7064</v>
       </c>
       <c r="C25" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>Users!A26</f>
         <v>ephics</v>
@@ -5622,10 +5621,10 @@
         <v>585-475-5361</v>
       </c>
       <c r="C26" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>Users!A27</f>
         <v>mphics</v>
@@ -5635,22 +5634,22 @@
         <v>585-475-2459</v>
       </c>
       <c r="C27" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>Users!A28</f>
         <v>jcjics</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>Users!A29</f>
         <v>mrjics</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>Users!A30</f>
         <v>jwkics</v>
@@ -5660,10 +5659,10 @@
         <v>585-475-5362</v>
       </c>
       <c r="C30" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>Users!A31</f>
         <v>drkisd</v>
@@ -5673,22 +5672,22 @@
         <v>585-475-2811</v>
       </c>
       <c r="C31" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>Users!A32</f>
         <v>hnkics</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>Users!A33</f>
         <v>mxkics1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>Users!A34</f>
         <v>dmlics</v>
@@ -5698,10 +5697,10 @@
         <v>585-475-5001</v>
       </c>
       <c r="C34" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>Users!A35</f>
         <v>jalics</v>
@@ -5711,10 +5710,10 @@
         <v>585-475-2284</v>
       </c>
       <c r="C35" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>Users!A36</f>
         <v>jalvks</v>
@@ -5724,16 +5723,16 @@
         <v>585-475-6451</v>
       </c>
       <c r="C36" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>Users!A37</f>
         <v>jxlics</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>Users!A38</f>
         <v>phlics</v>
@@ -5743,10 +5742,10 @@
         <v>585-475-6162</v>
       </c>
       <c r="C38" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>Users!A39</f>
         <v>spmics</v>
@@ -5756,16 +5755,16 @@
         <v>585-475-6989</v>
       </c>
       <c r="C39" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>Users!A40</f>
         <v>mjmics</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>Users!A41</f>
         <v>thoics</v>
@@ -5775,10 +5774,10 @@
         <v>585-475-7642</v>
       </c>
       <c r="C41" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f>Users!A42</f>
         <v>sphics</v>
@@ -5788,10 +5787,10 @@
         <v>585-475-7941</v>
       </c>
       <c r="C42" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f>Users!A43</f>
         <v>djpihst</v>
@@ -5801,40 +5800,40 @@
         <v>585-475-2487</v>
       </c>
       <c r="C43" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f>Users!A44</f>
         <v>sarics</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f>Users!A45</f>
         <v>ldrics</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f>Users!A46</f>
         <v>kmsics</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f>Users!A47</f>
         <v>cxsics</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f>Users!A48</f>
         <v>nxsvks</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f>Users!A49</f>
         <v>aesfaa</v>
@@ -5844,16 +5843,16 @@
         <v>585-475-4552</v>
       </c>
       <c r="C49" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f>Users!A50</f>
         <v>jxtadm</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f>Users!A51</f>
         <v>bmtski</v>
@@ -5863,10 +5862,10 @@
         <v>585-475-2869</v>
       </c>
       <c r="C51" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f>Users!A52</f>
         <v>rpvvks</v>
@@ -5876,16 +5875,16 @@
         <v>585-475-7281</v>
       </c>
       <c r="C52" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f>Users!A53</f>
         <v>axgvks</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f>Users!A54</f>
         <v>emwics</v>
@@ -5895,22 +5894,22 @@
         <v>585-475-6733</v>
       </c>
       <c r="C54" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f>Users!A55</f>
         <v>jswics</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f>Users!A56</f>
         <v>mayici</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f>Users!A57</f>
         <v>qyuvks</v>
@@ -5920,10 +5919,10 @@
         <v>585-475-6929</v>
       </c>
       <c r="C57" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f>Users!A58</f>
         <v>sjzics</v>
@@ -5933,10 +5932,10 @@
         <v>585-475-7643</v>
       </c>
       <c r="C58" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f>Users!A59</f>
         <v>rdbcst</v>
@@ -5946,10 +5945,10 @@
         <v>585-475-7924</v>
       </c>
       <c r="C59" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f>Users!A60</f>
         <v>GradCoord</v>
@@ -5959,7 +5958,7 @@
         <v>585-475-6929</v>
       </c>
       <c r="C60" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -5968,27 +5967,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>393</v>
       </c>
@@ -6004,20 +6003,20 @@
       <c r="E1" t="s">
         <v>397</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>399</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>400</v>
       </c>
-      <c r="I1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>Users!A2</f>
         <v>ab1234</v>
@@ -6031,23 +6030,22 @@
         <v>Baker</v>
       </c>
       <c r="D2" t="s">
-        <v>430</v>
-      </c>
-      <c r="F2" s="2" t="d">
-        <v>2017-05-15</v>
-      </c>
-      <c r="G2" t="str">
-        <f>Users!J2</f>
-        <v>Grad</v>
+        <v>429</v>
+      </c>
+      <c r="F2" s="3" t="d">
+        <v>2018-05-15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="H2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>Users!A3</f>
         <v>dn1234</v>
@@ -6061,23 +6059,22 @@
         <v>Novello</v>
       </c>
       <c r="D3" t="s">
-        <v>430</v>
-      </c>
-      <c r="F3" s="2" t="d">
-        <v>2017-05-15</v>
-      </c>
-      <c r="G3" t="str">
-        <f>Users!J3</f>
-        <v>Grad</v>
+        <v>429</v>
+      </c>
+      <c r="F3" s="3" t="d">
+        <v>2018-05-15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="H3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>Users!A4</f>
         <v>gs1234</v>
@@ -6091,23 +6088,22 @@
         <v>Sarducci</v>
       </c>
       <c r="D4" t="s">
-        <v>430</v>
-      </c>
-      <c r="F4" s="2" t="d">
-        <v>2016-05-13</v>
-      </c>
-      <c r="G4" t="str">
-        <f>Users!J4</f>
-        <v>Grad</v>
+        <v>429</v>
+      </c>
+      <c r="F4" s="3" t="d">
+        <v>2017-05-13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="H4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>Users!A5</f>
         <v>txaics</v>
@@ -6121,18 +6117,17 @@
         <v>Alam</v>
       </c>
       <c r="D5" t="s">
-        <v>430</v>
-      </c>
-      <c r="G5" t="str">
-        <f>Users!J5</f>
-        <v>Faculty</v>
+        <v>429</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I5" t="str">
         <f>Users!J5</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>Users!A6</f>
         <v>gpavks</v>
@@ -6146,22 +6141,21 @@
         <v>Arcoraci</v>
       </c>
       <c r="D6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E6" t="str">
         <f>Users!F6</f>
         <v>https://ist.rit.edu/assets/img/people/gpavks.jpg</v>
       </c>
-      <c r="G6" t="str">
-        <f>Users!J6</f>
-        <v>Faculty</v>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I6" t="str">
         <f>Users!J6</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>Users!A7</f>
         <v>dlaics</v>
@@ -6175,22 +6169,21 @@
         <v>Ashbrook</v>
       </c>
       <c r="D7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E7" t="str">
         <f>Users!F7</f>
         <v>https://ist.rit.edu/assets/img/people/dlaics.jpg</v>
       </c>
-      <c r="G7" t="str">
-        <f>Users!J7</f>
-        <v>Faculty</v>
+      <c r="G7" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="I7" t="str">
         <f>Users!J7</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>Users!A8</f>
         <v>ciiics</v>
@@ -6204,22 +6197,21 @@
         <v>Beaton</v>
       </c>
       <c r="D8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E8" t="str">
         <f>Users!F8</f>
         <v>https://ist.rit.edu/assets/img/people/ciiics.jpg</v>
       </c>
-      <c r="G8" t="str">
-        <f>Users!J8</f>
-        <v>Faculty</v>
+      <c r="G8" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="I8" t="str">
         <f>Users!J8</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>Users!A9</f>
         <v>aobics</v>
@@ -6233,18 +6225,17 @@
         <v>Berenbaum</v>
       </c>
       <c r="D9" t="s">
-        <v>430</v>
-      </c>
-      <c r="G9" t="str">
-        <f>Users!J9</f>
-        <v>Faculty</v>
+        <v>429</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I9" t="str">
         <f>Users!J9</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>Users!A10</f>
         <v>tsbics</v>
@@ -6258,18 +6249,17 @@
         <v>Bernhard</v>
       </c>
       <c r="D10" t="s">
-        <v>430</v>
-      </c>
-      <c r="G10" t="str">
-        <f>Users!J10</f>
-        <v>Faculty</v>
+        <v>429</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I10" t="str">
         <f>Users!J10</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>Users!A11</f>
         <v>dsbics</v>
@@ -6283,22 +6273,21 @@
         <v>Bogaard</v>
       </c>
       <c r="D11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E11" t="str">
         <f>Users!F11</f>
         <v>https://ist.rit.edu/assets/img/people/dsbics.jpg</v>
       </c>
-      <c r="G11" t="str">
-        <f>Users!J11</f>
-        <v>Faculty</v>
+      <c r="G11" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="I11" t="str">
         <f>Users!J11</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>Users!A12</f>
         <v>cbbics</v>
@@ -6312,22 +6301,21 @@
         <v>Border</v>
       </c>
       <c r="D12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E12" t="str">
         <f>Users!F12</f>
         <v>https://ist.rit.edu/assets/img/people/cbbics.jpg</v>
       </c>
-      <c r="G12" t="str">
-        <f>Users!J12</f>
-        <v>Faculty</v>
+      <c r="G12" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="I12" t="str">
         <f>Users!J12</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>Users!A13</f>
         <v>spbics</v>
@@ -6341,22 +6329,21 @@
         <v>Boyle</v>
       </c>
       <c r="D13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E13" t="str">
         <f>Users!F13</f>
         <v>https://www.rit.edu/gccis/sites/rit.edu.gccis/files//Boyle%20Sean%20new%20headshot.jpg</v>
       </c>
-      <c r="G13" t="str">
-        <f>Users!J13</f>
-        <v>Faculty</v>
+      <c r="G13" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I13" t="str">
         <f>Users!J13</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>Users!A14</f>
         <v>mjcics</v>
@@ -6370,18 +6357,17 @@
         <v>Carroll</v>
       </c>
       <c r="D14" t="s">
-        <v>430</v>
-      </c>
-      <c r="G14" t="str">
-        <f>Users!J14</f>
-        <v>Faculty</v>
+        <v>429</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I14" t="str">
         <f>Users!J14</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>Users!A15</f>
         <v>mjcvks</v>
@@ -6395,18 +6381,17 @@
         <v>Casale</v>
       </c>
       <c r="D15" t="s">
-        <v>430</v>
-      </c>
-      <c r="G15" t="str">
-        <f>Users!J15</f>
-        <v>Faculty</v>
+        <v>429</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I15" t="str">
         <f>Users!J15</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>Users!A16</f>
         <v>mjfics</v>
@@ -6420,22 +6405,21 @@
         <v>Floeser</v>
       </c>
       <c r="D16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E16" t="str">
         <f>Users!F16</f>
         <v>https://ist.rit.edu/assets/img/people/mjfics.jpg</v>
       </c>
-      <c r="G16" t="str">
-        <f>Users!J16</f>
-        <v>Faculty</v>
+      <c r="G16" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="I16" t="str">
         <f>Users!J16</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>Users!A17</f>
         <v>nffbbu</v>
@@ -6449,18 +6433,17 @@
         <v>Francesco</v>
       </c>
       <c r="D17" t="s">
-        <v>430</v>
-      </c>
-      <c r="G17" t="str">
-        <f>Users!J17</f>
-        <v>Faculty</v>
+        <v>429</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I17" t="str">
         <f>Users!J17</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>Users!A18</f>
         <v>bdfvks</v>
@@ -6474,22 +6457,21 @@
         <v>French</v>
       </c>
       <c r="D18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E18" t="str">
         <f>Users!F18</f>
         <v>https://ist.rit.edu/assets/img/people/bdfvks.jpg</v>
       </c>
-      <c r="G18" t="str">
-        <f>Users!J18</f>
-        <v>Faculty</v>
+      <c r="G18" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I18" t="str">
         <f>Users!J18</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>Users!A19</f>
         <v>dmgics</v>
@@ -6503,18 +6485,17 @@
         <v>Ganskop</v>
       </c>
       <c r="D19" t="s">
-        <v>430</v>
-      </c>
-      <c r="G19" t="str">
-        <f>Users!J19</f>
-        <v>Faculty</v>
+        <v>429</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I19" t="str">
         <f>Users!J19</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>Users!A20</f>
         <v>efgics</v>
@@ -6528,22 +6509,21 @@
         <v>Golen</v>
       </c>
       <c r="D20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E20" t="str">
         <f>Users!F20</f>
         <v>https://ist.rit.edu/assets/img/people/efgics.jpg</v>
       </c>
-      <c r="G20" t="str">
-        <f>Users!J20</f>
-        <v>Faculty</v>
+      <c r="G20" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="I20" t="str">
         <f>Users!J20</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>Users!A21</f>
         <v>jrhicsa</v>
@@ -6557,18 +6537,17 @@
         <v>Habermas</v>
       </c>
       <c r="D21" t="s">
-        <v>430</v>
-      </c>
-      <c r="G21" t="str">
-        <f>Users!J21</f>
-        <v>Faculty</v>
+        <v>429</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I21" t="str">
         <f>Users!J21</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>Users!A22</f>
         <v>vlhics</v>
@@ -6582,22 +6561,21 @@
         <v>Hanson</v>
       </c>
       <c r="D22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E22" t="str">
         <f>Users!F22</f>
         <v>https://ist.rit.edu/assets/img/people/vlhics.jpg</v>
       </c>
-      <c r="G22" t="str">
-        <f>Users!J22</f>
-        <v>Faculty</v>
+      <c r="G22" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="I22" t="str">
         <f>Users!J22</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>Users!A23</f>
         <v>bhhics</v>
@@ -6611,22 +6589,21 @@
         <v>Hartpence</v>
       </c>
       <c r="D23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E23" t="str">
         <f>Users!F23</f>
         <v>https://ist.rit.edu/assets/img/people/bhhics.jpg</v>
       </c>
-      <c r="G23" t="str">
-        <f>Users!J23</f>
-        <v>Faculty</v>
+      <c r="G23" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="I23" t="str">
         <f>Users!J23</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>Users!A24</f>
         <v>amhgss</v>
@@ -6640,22 +6617,21 @@
         <v>Herbert</v>
       </c>
       <c r="D24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E24" t="str">
         <f>Users!F24</f>
         <v>https://ist.rit.edu/assets/img/people/amhgss.jpg</v>
       </c>
-      <c r="G24" t="str">
-        <f>Users!J24</f>
-        <v>Faculty</v>
+      <c r="G24" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="I24" t="str">
         <f>Users!J24</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>Users!A25</f>
         <v>lwhfac</v>
@@ -6669,22 +6645,21 @@
         <v>Hill</v>
       </c>
       <c r="D25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E25" t="str">
         <f>Users!F25</f>
         <v>https://ist.rit.edu/assets/img/people/lwhfac.jpg</v>
       </c>
-      <c r="G25" t="str">
-        <f>Users!J25</f>
-        <v>Faculty</v>
+      <c r="G25" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="I25" t="str">
         <f>Users!J25</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>Users!A26</f>
         <v>ephics</v>
@@ -6698,22 +6673,21 @@
         <v>Holden</v>
       </c>
       <c r="D26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E26" t="str">
         <f>Users!F26</f>
         <v>https://ist.rit.edu/assets/img/people/ephics.jpg</v>
       </c>
-      <c r="G26" t="str">
-        <f>Users!J26</f>
-        <v>Faculty</v>
+      <c r="G26" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="I26" t="str">
         <f>Users!J26</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>Users!A27</f>
         <v>mphics</v>
@@ -6727,22 +6701,21 @@
         <v>Huenerfauth</v>
       </c>
       <c r="D27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E27" t="str">
         <f>Users!F27</f>
         <v>https://ist.rit.edu/assets/img/people/mphics.jpg</v>
       </c>
-      <c r="G27" t="str">
-        <f>Users!J27</f>
-        <v>Faculty</v>
+      <c r="G27" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="I27" t="str">
         <f>Users!J27</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>Users!A28</f>
         <v>jcjics</v>
@@ -6756,22 +6729,21 @@
         <v>Jockel</v>
       </c>
       <c r="D28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E28" t="str">
         <f>Users!F28</f>
         <v>https://www.rit.edu/gccis/sites/rit.edu.gccis/files//Jeff%20IST%20small.jpg</v>
       </c>
-      <c r="G28" t="str">
-        <f>Users!J28</f>
-        <v>Faculty</v>
+      <c r="G28" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I28" t="str">
         <f>Users!J28</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>Users!A29</f>
         <v>mrjics</v>
@@ -6785,18 +6757,17 @@
         <v>Juba</v>
       </c>
       <c r="D29" t="s">
-        <v>430</v>
-      </c>
-      <c r="G29" t="str">
-        <f>Users!J29</f>
-        <v>Faculty</v>
+        <v>429</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I29" t="str">
         <f>Users!J29</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>Users!A30</f>
         <v>jwkics</v>
@@ -6810,22 +6781,21 @@
         <v>Kang</v>
       </c>
       <c r="D30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E30" t="str">
         <f>Users!F30</f>
         <v>https://ist.rit.edu/assets/img/people/jwkics.jpg</v>
       </c>
-      <c r="G30" t="str">
-        <f>Users!J30</f>
-        <v>Faculty</v>
+      <c r="G30" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="I30" t="str">
         <f>Users!J30</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>Users!A31</f>
         <v>drkisd</v>
@@ -6839,22 +6809,21 @@
         <v>Kennedy</v>
       </c>
       <c r="D31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E31" t="str">
         <f>Users!F31</f>
         <v>https://ist.rit.edu/assets/img/people/drkisd.jpg</v>
       </c>
-      <c r="G31" t="str">
-        <f>Users!J31</f>
-        <v>Faculty</v>
+      <c r="G31" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I31" t="str">
         <f>Users!J31</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>Users!A32</f>
         <v>hnkics</v>
@@ -6868,18 +6837,17 @@
         <v>Klossner</v>
       </c>
       <c r="D32" t="s">
-        <v>430</v>
-      </c>
-      <c r="G32" t="str">
-        <f>Users!J32</f>
-        <v>Faculty</v>
+        <v>429</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I32" t="str">
         <f>Users!J32</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>Users!A33</f>
         <v>mxkics1</v>
@@ -6893,18 +6861,17 @@
         <v>Kuliner</v>
       </c>
       <c r="D33" t="s">
-        <v>430</v>
-      </c>
-      <c r="G33" t="str">
-        <f>Users!J33</f>
-        <v>Faculty</v>
+        <v>429</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I33" t="str">
         <f>Users!J33</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>Users!A34</f>
         <v>dmlics</v>
@@ -6918,22 +6885,21 @@
         <v>LaBelle</v>
       </c>
       <c r="D34" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E34" t="str">
         <f>Users!F34</f>
         <v>https://ist.rit.edu/assets/img/people/dmlics.jpg</v>
       </c>
-      <c r="G34" t="str">
-        <f>Users!J34</f>
-        <v>Faculty</v>
+      <c r="G34" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I34" t="str">
         <f>Users!J34</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>Users!A35</f>
         <v>jalics</v>
@@ -6947,22 +6913,21 @@
         <v>Lasky</v>
       </c>
       <c r="D35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E35" t="str">
         <f>Users!F35</f>
         <v>https://ist.rit.edu/assets/img/people/jalics.jpg</v>
       </c>
-      <c r="G35" t="str">
-        <f>Users!J35</f>
-        <v>Faculty</v>
+      <c r="G35" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="I35" t="str">
         <f>Users!J35</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>Users!A36</f>
         <v>jalvks</v>
@@ -6976,22 +6941,21 @@
         <v>Leone</v>
       </c>
       <c r="D36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E36" t="str">
         <f>Users!F36</f>
         <v>https://ist.rit.edu/assets/img/people/jalvks.jpg</v>
       </c>
-      <c r="G36" t="str">
-        <f>Users!J36</f>
-        <v>Faculty</v>
+      <c r="G36" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="I36" t="str">
         <f>Users!J36</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>Users!A37</f>
         <v>jxlics</v>
@@ -7005,18 +6969,17 @@
         <v>Loporcaro</v>
       </c>
       <c r="D37" t="s">
-        <v>430</v>
-      </c>
-      <c r="G37" t="str">
-        <f>Users!J37</f>
-        <v>Faculty</v>
+        <v>429</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I37" t="str">
         <f>Users!J37</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>Users!A38</f>
         <v>phlics</v>
@@ -7030,22 +6993,21 @@
         <v>Lutz</v>
       </c>
       <c r="D38" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E38" t="str">
         <f>Users!F38</f>
         <v>https://ist.rit.edu/assets/img/people/phlics.jpg</v>
       </c>
-      <c r="G38" t="str">
-        <f>Users!J38</f>
-        <v>Faculty</v>
+      <c r="G38" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="I38" t="str">
         <f>Users!J38</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>Users!A39</f>
         <v>spmics</v>
@@ -7059,22 +7021,21 @@
         <v>Mason</v>
       </c>
       <c r="D39" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E39" t="str">
         <f>Users!F39</f>
         <v>https://ist.rit.edu/assets/img/people/spmics.jpg</v>
       </c>
-      <c r="G39" t="str">
-        <f>Users!J39</f>
-        <v>Faculty</v>
+      <c r="G39" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="I39" t="str">
         <f>Users!J39</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>Users!A40</f>
         <v>mjmics</v>
@@ -7088,22 +7049,21 @@
         <v>McQuaid</v>
       </c>
       <c r="D40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E40" t="str">
         <f>Users!F40</f>
         <v>https://ist.rit.edu/assets/img/people/mjmics.jpg</v>
       </c>
-      <c r="G40" t="str">
-        <f>Users!J40</f>
-        <v>Faculty</v>
+      <c r="G40" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I40" t="str">
         <f>Users!J40</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>Users!A41</f>
         <v>thoics</v>
@@ -7117,22 +7077,21 @@
         <v>Oh</v>
       </c>
       <c r="D41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E41" t="str">
         <f>Users!F41</f>
         <v>https://ist.rit.edu/assets/img/people/thoics.jpg</v>
       </c>
-      <c r="G41" t="str">
-        <f>Users!J41</f>
-        <v>Faculty</v>
+      <c r="G41" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="I41" t="str">
         <f>Users!J41</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f>Users!A42</f>
         <v>sphics</v>
@@ -7146,22 +7105,21 @@
         <v>Perez-Hardy</v>
       </c>
       <c r="D42" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E42" t="str">
         <f>Users!F42</f>
         <v>https://ist.rit.edu/assets/img/people/sphics.jpg</v>
       </c>
-      <c r="G42" t="str">
-        <f>Users!J42</f>
-        <v>Faculty</v>
+      <c r="G42" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="I42" t="str">
         <f>Users!J42</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f>Users!A43</f>
         <v>djpihst</v>
@@ -7175,22 +7133,21 @@
         <v>Powell</v>
       </c>
       <c r="D43" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E43" t="str">
         <f>Users!F43</f>
         <v>https://ist.rit.edu/assets/img/people/djpihst.jpg</v>
       </c>
-      <c r="G43" t="str">
-        <f>Users!J43</f>
-        <v>Faculty</v>
+      <c r="G43" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="I43" t="str">
         <f>Users!J43</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f>Users!A44</f>
         <v>sarics</v>
@@ -7204,18 +7161,17 @@
         <v>Root II</v>
       </c>
       <c r="D44" t="s">
-        <v>430</v>
-      </c>
-      <c r="G44" t="str">
-        <f>Users!J44</f>
-        <v>Faculty</v>
+        <v>429</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I44" t="str">
         <f>Users!J44</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f>Users!A45</f>
         <v>ldrics</v>
@@ -7229,18 +7185,17 @@
         <v>Roth</v>
       </c>
       <c r="D45" t="s">
-        <v>430</v>
-      </c>
-      <c r="G45" t="str">
-        <f>Users!J45</f>
-        <v>Faculty</v>
+        <v>429</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I45" t="str">
         <f>Users!J45</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f>Users!A46</f>
         <v>kmsics</v>
@@ -7254,18 +7209,17 @@
         <v>Sabourin</v>
       </c>
       <c r="D46" t="s">
-        <v>430</v>
-      </c>
-      <c r="G46" t="str">
-        <f>Users!J46</f>
-        <v>Faculty</v>
+        <v>429</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I46" t="str">
         <f>Users!J46</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f>Users!A47</f>
         <v>cxsics</v>
@@ -7279,18 +7233,17 @@
         <v>Schneider</v>
       </c>
       <c r="D47" t="s">
-        <v>430</v>
-      </c>
-      <c r="G47" t="str">
-        <f>Users!J47</f>
-        <v>Faculty</v>
+        <v>429</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I47" t="str">
         <f>Users!J47</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f>Users!A48</f>
         <v>nxsvks</v>
@@ -7304,22 +7257,21 @@
         <v>Shenoy</v>
       </c>
       <c r="D48" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E48" t="str">
         <f>Users!F48</f>
         <v>https://ist.rit.edu/assets/img/people/nxsvks.jpg</v>
       </c>
-      <c r="G48" t="str">
-        <f>Users!J48</f>
-        <v>Faculty</v>
+      <c r="G48" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="I48" t="str">
         <f>Users!J48</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f>Users!A49</f>
         <v>aesfaa</v>
@@ -7333,22 +7285,21 @@
         <v>Smith</v>
       </c>
       <c r="D49" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E49" t="str">
         <f>Users!F49</f>
         <v>https://ist.rit.edu/assets/img/people/aesfaa.jpg</v>
       </c>
-      <c r="G49" t="str">
-        <f>Users!J49</f>
-        <v>Faculty</v>
+      <c r="G49" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="I49" t="str">
         <f>Users!J49</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f>Users!A50</f>
         <v>jxtadm</v>
@@ -7362,18 +7313,17 @@
         <v>Takats</v>
       </c>
       <c r="D50" t="s">
-        <v>430</v>
-      </c>
-      <c r="G50" t="str">
-        <f>Users!J50</f>
-        <v>Faculty</v>
+        <v>429</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I50" t="str">
         <f>Users!J50</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f>Users!A51</f>
         <v>bmtski</v>
@@ -7387,22 +7337,21 @@
         <v>Tomaszewski</v>
       </c>
       <c r="D51" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E51" t="str">
         <f>Users!F51</f>
         <v>https://ist.rit.edu/assets/img/people/bmtski.jpg</v>
       </c>
-      <c r="G51" t="str">
-        <f>Users!J51</f>
-        <v>Faculty</v>
+      <c r="G51" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="I51" t="str">
         <f>Users!J51</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f>Users!A52</f>
         <v>rpvvks</v>
@@ -7416,22 +7365,21 @@
         <v>Vullo</v>
       </c>
       <c r="D52" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E52" t="str">
         <f>Users!F52</f>
         <v>https://ist.rit.edu/assets/img/people/rpvvks.jpg</v>
       </c>
-      <c r="G52" t="str">
-        <f>Users!J52</f>
-        <v>Faculty</v>
+      <c r="G52" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="I52" t="str">
         <f>Users!J52</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f>Users!A53</f>
         <v>axgvks</v>
@@ -7445,22 +7393,21 @@
         <v>Warren</v>
       </c>
       <c r="D53" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E53" t="str">
         <f>Users!F53</f>
         <v>https://www.rit.edu/gccis/sites/rit.edu.gccis/files//ann.jpg</v>
       </c>
-      <c r="G53" t="str">
-        <f>Users!J53</f>
-        <v>Faculty</v>
+      <c r="G53" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I53" t="str">
         <f>Users!J53</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f>Users!A54</f>
         <v>emwics</v>
@@ -7474,22 +7421,21 @@
         <v>Weeden</v>
       </c>
       <c r="D54" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E54" t="str">
         <f>Users!F54</f>
         <v>https://ist.rit.edu/assets/img/people/emwics.jpg</v>
       </c>
-      <c r="G54" t="str">
-        <f>Users!J54</f>
-        <v>Faculty</v>
+      <c r="G54" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="I54" t="str">
         <f>Users!J54</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f>Users!A55</f>
         <v>jswics</v>
@@ -7503,22 +7449,21 @@
         <v>Weissman</v>
       </c>
       <c r="D55" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E55" t="str">
         <f>Users!F55</f>
         <v>https://www.rit.edu/gccis/sites/rit.edu.gccis/files//jweissman%5B1%5D.jpg</v>
       </c>
-      <c r="G55" t="str">
-        <f>Users!J55</f>
-        <v>Faculty</v>
+      <c r="G55" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I55" t="str">
         <f>Users!J55</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f>Users!A56</f>
         <v>mayici</v>
@@ -7532,22 +7477,21 @@
         <v>Yacci</v>
       </c>
       <c r="D56" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E56" t="str">
         <f>Users!F56</f>
         <v>https://www.rit.edu/gccis//sites/rit.edu.gccis/files//yacci%20new%20headshot.jpg</v>
       </c>
-      <c r="G56" t="str">
-        <f>Users!J56</f>
-        <v>Faculty</v>
+      <c r="G56" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I56" t="str">
         <f>Users!J56</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f>Users!A57</f>
         <v>qyuvks</v>
@@ -7561,22 +7505,21 @@
         <v>Yu</v>
       </c>
       <c r="D57" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E57" t="str">
         <f>Users!F57</f>
         <v>https://ist.rit.edu/assets/img/people/qyuvks.jpg</v>
       </c>
-      <c r="G57" t="str">
-        <f>Users!J57</f>
-        <v>Faculty</v>
+      <c r="G57" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="I57" t="str">
         <f>Users!J57</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f>Users!A58</f>
         <v>sjzics</v>
@@ -7590,22 +7533,21 @@
         <v>Zilora</v>
       </c>
       <c r="D58" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E58" t="str">
         <f>Users!F58</f>
         <v>https://ist.rit.edu/assets/img/people/sjzics.jpg</v>
       </c>
-      <c r="G58" t="str">
-        <f>Users!J58</f>
-        <v>Faculty</v>
+      <c r="G58" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="I58" t="str">
         <f>Users!J58</f>
         <v>Faculty</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f>Users!A59</f>
         <v>rdbcst</v>
@@ -7619,22 +7561,21 @@
         <v>Baker-Smith</v>
       </c>
       <c r="D59" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E59" t="str">
         <f>Users!F59</f>
         <v>https://ist.rit.edu/assets/img/people/rdbcst.jpg</v>
       </c>
-      <c r="G59" t="str">
-        <f>Users!J59</f>
-        <v>Staff</v>
+      <c r="G59" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="I59" t="str">
         <f>Users!J59</f>
         <v>Staff</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f>Users!A60</f>
         <v>GradCoord</v>
@@ -7648,22 +7589,21 @@
         <v>Yu</v>
       </c>
       <c r="D60" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E60" t="str">
         <f>Users!F60</f>
         <v>https://ist.rit.edu/assets/img/people/qyuvks.jpg</v>
       </c>
-      <c r="G60" t="str">
-        <f>Users!J60</f>
-        <v>Staff</v>
+      <c r="G60" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="I60" t="str">
         <f>Users!J60</f>
         <v>Staff</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f>Users!A61</f>
         <v>mchics</v>
@@ -7677,22 +7617,21 @@
         <v>Hanna</v>
       </c>
       <c r="D61" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E61" t="str">
         <f>Users!F61</f>
         <v>https://ist.rit.edu/assets/img/people/mchics.jpg</v>
       </c>
-      <c r="G61" t="str">
-        <f>Users!J61</f>
-        <v>Staff</v>
+      <c r="G61" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="I61" t="str">
         <f>Users!J61</f>
         <v>Staff</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f>Users!A62</f>
         <v>jmpics</v>
@@ -7706,15 +7645,14 @@
         <v>Persson</v>
       </c>
       <c r="D62" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E62" t="str">
         <f>Users!F62</f>
         <v>https://ist.rit.edu/assets/img/people/jmpics.jpg</v>
       </c>
-      <c r="G62" t="str">
-        <f>Users!J62</f>
-        <v>Staff</v>
+      <c r="G62" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="I62" t="str">
         <f>Users!J62</f>
@@ -7723,31 +7661,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.09765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>378</v>
       </c>
@@ -7776,7 +7715,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7813,7 +7752,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7850,7 +7789,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7887,7 +7826,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7924,7 +7863,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7961,7 +7900,7 @@
         <v>GOL 2315</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7998,7 +7937,7 @@
         <v>GOL 2329</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8035,7 +7974,7 @@
         <v>GOL 2621</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8072,7 +8011,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8109,7 +8048,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8146,7 +8085,7 @@
         <v>GOL 2571</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8183,7 +8122,7 @@
         <v>GOL 2615</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8220,7 +8159,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8257,7 +8196,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8294,7 +8233,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8331,7 +8270,7 @@
         <v>GOL 2669</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8368,7 +8307,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8405,7 +8344,7 @@
         <v>GOL 2619</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8442,7 +8381,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8479,7 +8418,7 @@
         <v>GOL 2617</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8516,7 +8455,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8553,7 +8492,7 @@
         <v>GOL 2645</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8590,7 +8529,7 @@
         <v>GOL 2323</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8627,7 +8566,7 @@
         <v>GOL 2323</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8664,7 +8603,7 @@
         <v>GOL 2331</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8701,7 +8640,7 @@
         <v>GOL 2655</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8738,7 +8677,7 @@
         <v>GOL 2659</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8775,7 +8714,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8812,7 +8751,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8849,7 +8788,7 @@
         <v>GOL 2651</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8886,7 +8825,7 @@
         <v>GOL 2285</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8923,7 +8862,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8960,7 +8899,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8997,7 +8936,7 @@
         <v>GOL 2627</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9034,7 +8973,7 @@
         <v>GOL 26xx</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9071,7 +9010,7 @@
         <v>GOL 2657</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9108,7 +9047,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9145,7 +9084,7 @@
         <v>GOL 2345</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9182,7 +9121,7 @@
         <v>GOL 2319</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9219,7 +9158,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9256,7 +9195,7 @@
         <v>GOL 2281</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9293,7 +9232,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9330,7 +9269,7 @@
         <v>CBT-2161</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9367,7 +9306,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9404,7 +9343,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9441,7 +9380,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9478,7 +9417,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9515,7 +9454,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9552,7 +9491,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9589,7 +9528,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9626,7 +9565,7 @@
         <v>GOL 2673</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9663,7 +9602,7 @@
         <v>GOL 2519</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9700,7 +9639,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9737,7 +9676,7 @@
         <v>GOL 2635</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9774,7 +9713,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9811,7 +9750,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9848,7 +9787,7 @@
         <v>GOL 2669</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -9885,7 +9824,7 @@
         <v>GOL 2109</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -9922,7 +9861,7 @@
         <v>GOL 2103</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -9959,7 +9898,7 @@
         <v>GOL 2669</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -9996,7 +9935,7 @@
         <v>GOL 2120</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -10033,7 +9972,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H63">
         <f>IF(Users!H63="UNKNOWN","",Users!H63)</f>
         <v>0</v>
@@ -10045,25 +9984,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="B5:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="137.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="137.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>387</v>
       </c>
@@ -10086,7 +10025,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="str">
         <f xml:space="preserve"> Users!K2</f>
         <v>thesis</v>
@@ -10109,7 +10048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="str">
         <f xml:space="preserve"> Users!K3</f>
         <v>proj</v>
@@ -10132,7 +10071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="str">
         <f xml:space="preserve"> Users!K4</f>
         <v>proj</v>
